--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H2">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.399451290637182</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N2">
-        <v>0.399451290637182</v>
+        <v>2.162955</v>
       </c>
       <c r="O2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q2">
-        <v>27.84522936894524</v>
+        <v>58.42598751752668</v>
       </c>
       <c r="R2">
-        <v>27.84522936894524</v>
+        <v>525.8338876577401</v>
       </c>
       <c r="S2">
-        <v>0.01592267280872565</v>
+        <v>0.02503815794992931</v>
       </c>
       <c r="T2">
-        <v>0.01592267280872565</v>
+        <v>0.02503815794992931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H3">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94651054678161</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N3">
-        <v>2.94651054678161</v>
+        <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q3">
-        <v>205.3974137429238</v>
+        <v>274.4947006480564</v>
       </c>
       <c r="R3">
-        <v>205.3974137429238</v>
+        <v>2470.452305832508</v>
       </c>
       <c r="S3">
-        <v>0.1174519258381282</v>
+        <v>0.1176332992092411</v>
       </c>
       <c r="T3">
-        <v>0.1174519258381282</v>
+        <v>0.1176332992092411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H4">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.440561938305941</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N4">
-        <v>0.440561938305941</v>
+        <v>0.350249</v>
       </c>
       <c r="O4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q4">
-        <v>30.71099909024586</v>
+        <v>9.460965994219112</v>
       </c>
       <c r="R4">
-        <v>30.71099909024586</v>
+        <v>85.14869394797202</v>
       </c>
       <c r="S4">
-        <v>0.0175613992495397</v>
+        <v>0.00405444855940359</v>
       </c>
       <c r="T4">
-        <v>0.0175613992495397</v>
+        <v>0.004054448559403589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>176.889398206918</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H5">
-        <v>176.889398206918</v>
+        <v>243.109028</v>
       </c>
       <c r="I5">
-        <v>0.3830078400086587</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J5">
-        <v>0.3830078400086587</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.399451290637182</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N5">
-        <v>0.399451290637182</v>
+        <v>1.431185</v>
       </c>
       <c r="O5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q5">
-        <v>70.65869841378782</v>
+        <v>38.65933269313112</v>
       </c>
       <c r="R5">
-        <v>70.65869841378782</v>
+        <v>347.93399423818</v>
       </c>
       <c r="S5">
-        <v>0.0404045993310409</v>
+        <v>0.01656725918272437</v>
       </c>
       <c r="T5">
-        <v>0.0404045993310409</v>
+        <v>0.01656725918272436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H6">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.94651054678161</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N6">
-        <v>2.94651054678161</v>
+        <v>2.162955</v>
       </c>
       <c r="O6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q6">
-        <v>521.206477430536</v>
+        <v>128.59907640679</v>
       </c>
       <c r="R6">
-        <v>521.206477430536</v>
+        <v>1157.39168766111</v>
       </c>
       <c r="S6">
-        <v>0.2980402889110492</v>
+        <v>0.05511047607577593</v>
       </c>
       <c r="T6">
-        <v>0.2980402889110492</v>
+        <v>0.05511047607577592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H7">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.440561938305941</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N7">
-        <v>0.440561938305941</v>
+        <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q7">
-        <v>77.93073613981123</v>
+        <v>604.1791757701847</v>
       </c>
       <c r="R7">
-        <v>77.93073613981123</v>
+        <v>5437.612581931662</v>
       </c>
       <c r="S7">
-        <v>0.04456295176656857</v>
+        <v>0.2589178938302757</v>
       </c>
       <c r="T7">
-        <v>0.04456295176656857</v>
+        <v>0.2589178938302757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>125.306455331482</v>
+        <v>178.365814</v>
       </c>
       <c r="H8">
-        <v>125.306455331482</v>
+        <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J8">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.399451290637182</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N8">
-        <v>0.399451290637182</v>
+        <v>0.350249</v>
       </c>
       <c r="O8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q8">
-        <v>50.05382530733088</v>
+        <v>20.82414932922867</v>
       </c>
       <c r="R8">
-        <v>50.05382530733088</v>
+        <v>187.417343963058</v>
       </c>
       <c r="S8">
-        <v>0.02862216262016485</v>
+        <v>0.008924082625419594</v>
       </c>
       <c r="T8">
-        <v>0.02862216262016485</v>
+        <v>0.008924082625419594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>125.306455331482</v>
+        <v>178.365814</v>
       </c>
       <c r="H9">
-        <v>125.306455331482</v>
+        <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J9">
-        <v>0.2713184355995814</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.94651054678161</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N9">
-        <v>2.94651054678161</v>
+        <v>1.431185</v>
       </c>
       <c r="O9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q9">
-        <v>369.2167922140304</v>
+        <v>85.09149250319668</v>
       </c>
       <c r="R9">
-        <v>369.2167922140304</v>
+        <v>765.8234325287701</v>
       </c>
       <c r="S9">
-        <v>0.2111283803777099</v>
+        <v>0.03646552364820783</v>
       </c>
       <c r="T9">
-        <v>0.2111283803777099</v>
+        <v>0.03646552364820783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H10">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.440561938305941</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N10">
-        <v>0.440561938305941</v>
+        <v>2.162955</v>
       </c>
       <c r="O10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q10">
-        <v>55.20525484308452</v>
+        <v>105.4298747153783</v>
       </c>
       <c r="R10">
-        <v>55.20525484308452</v>
+        <v>948.8688724384052</v>
       </c>
       <c r="S10">
-        <v>0.03156789260170666</v>
+        <v>0.04518143326157768</v>
       </c>
       <c r="T10">
-        <v>0.03156789260170666</v>
+        <v>0.04518143326157767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.93820922091309</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H11">
-        <v>89.93820922091309</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I11">
-        <v>0.1947377264953664</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J11">
-        <v>0.1947377264953664</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.399451290637182</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N11">
-        <v>0.399451290637182</v>
+        <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q11">
-        <v>35.92593375089064</v>
+        <v>495.3265341159779</v>
       </c>
       <c r="R11">
-        <v>35.92593375089064</v>
+        <v>4457.938807043802</v>
       </c>
       <c r="S11">
-        <v>0.02054344321908718</v>
+        <v>0.2122696513134078</v>
       </c>
       <c r="T11">
-        <v>0.02054344321908718</v>
+        <v>0.2122696513134078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.93820922091309</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H12">
-        <v>89.93820922091309</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I12">
-        <v>0.1947377264953664</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J12">
-        <v>0.1947377264953664</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.94651054678161</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N12">
-        <v>2.94651054678161</v>
+        <v>0.350249</v>
       </c>
       <c r="O12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q12">
-        <v>265.0038820280715</v>
+        <v>17.07234232297322</v>
       </c>
       <c r="R12">
-        <v>265.0038820280715</v>
+        <v>153.651080906759</v>
       </c>
       <c r="S12">
-        <v>0.1515365540957276</v>
+        <v>0.007316264933128206</v>
       </c>
       <c r="T12">
-        <v>0.1515365540957276</v>
+        <v>0.007316264933128205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.93820922091309</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H13">
-        <v>89.93820922091309</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I13">
-        <v>0.1947377264953664</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J13">
-        <v>0.1947377264953664</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.440561938305941</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N13">
-        <v>0.440561938305941</v>
+        <v>1.431185</v>
       </c>
       <c r="O13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q13">
-        <v>39.62335178213073</v>
+        <v>69.76088510603724</v>
       </c>
       <c r="R13">
-        <v>39.62335178213073</v>
+        <v>627.8479659543351</v>
       </c>
       <c r="S13">
-        <v>0.02265772918055163</v>
+        <v>0.02989567030403825</v>
       </c>
       <c r="T13">
-        <v>0.02265772918055163</v>
+        <v>0.02989567030403825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>90.630432</v>
+      </c>
+      <c r="H14">
+        <v>271.891296</v>
+      </c>
+      <c r="I14">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J14">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7209850000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.162955</v>
+      </c>
+      <c r="O14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="P14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="Q14">
+        <v>65.34318201552001</v>
+      </c>
+      <c r="R14">
+        <v>588.08863813968</v>
+      </c>
+      <c r="S14">
+        <v>0.02800248625262483</v>
+      </c>
+      <c r="T14">
+        <v>0.02800248625262482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>90.630432</v>
+      </c>
+      <c r="H15">
+        <v>271.891296</v>
+      </c>
+      <c r="I15">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J15">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.387303666666666</v>
+      </c>
+      <c r="N15">
+        <v>10.161911</v>
+      </c>
+      <c r="O15">
+        <v>0.7203810354238886</v>
+      </c>
+      <c r="P15">
+        <v>0.7203810354238885</v>
+      </c>
+      <c r="Q15">
+        <v>306.992794625184</v>
+      </c>
+      <c r="R15">
+        <v>2762.935151626656</v>
+      </c>
+      <c r="S15">
+        <v>0.131560191070964</v>
+      </c>
+      <c r="T15">
+        <v>0.131560191070964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>90.630432</v>
+      </c>
+      <c r="H16">
+        <v>271.891296</v>
+      </c>
+      <c r="I16">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J16">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1167496666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.350249</v>
+      </c>
+      <c r="O16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="P16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="Q16">
+        <v>10.581072725856</v>
+      </c>
+      <c r="R16">
+        <v>95.22965453270402</v>
+      </c>
+      <c r="S16">
+        <v>0.004534464566990803</v>
+      </c>
+      <c r="T16">
+        <v>0.004534464566990802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>90.630432</v>
+      </c>
+      <c r="H17">
+        <v>271.891296</v>
+      </c>
+      <c r="I17">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="J17">
+        <v>0.1826258391068707</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4770616666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.431185</v>
+      </c>
+      <c r="O17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="P17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="Q17">
+        <v>43.23630494064</v>
+      </c>
+      <c r="R17">
+        <v>389.1267444657601</v>
+      </c>
+      <c r="S17">
+        <v>0.01852869721629108</v>
+      </c>
+      <c r="T17">
+        <v>0.01852869721629107</v>
       </c>
     </row>
   </sheetData>
